--- a/trunk/doc/HPSC job runs on Janus progress; 2011-04.xlsx
+++ b/trunk/doc/HPSC job runs on Janus progress; 2011-04.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
   <si>
     <t>Script Name</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>ERR</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -377,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -386,6 +395,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1043,8 +1053,8 @@
       <c r="D18" s="3">
         <v>1024</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -1063,8 +1073,8 @@
       <c r="D19" s="3">
         <v>128</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
+      <c r="E19" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>61</v>
@@ -1123,8 +1133,8 @@
       <c r="D22" s="3">
         <v>1024</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>44</v>
+      <c r="E22" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
@@ -1143,8 +1153,8 @@
       <c r="D23" s="3">
         <v>128</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>44</v>
+      <c r="E23" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F23" t="s">
         <v>65</v>
@@ -1203,8 +1213,8 @@
       <c r="D26" s="3">
         <v>1024</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>44</v>
+      <c r="E26" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
@@ -1223,8 +1233,8 @@
       <c r="D27" s="3">
         <v>128</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>44</v>
+      <c r="E27" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F27" t="s">
         <v>69</v>
@@ -1263,8 +1273,8 @@
       <c r="D29" s="3">
         <v>4096</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>44</v>
+      <c r="E29" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F29" t="s">
         <v>71</v>
@@ -1283,8 +1293,8 @@
       <c r="D30" s="3">
         <v>1024</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>44</v>
+      <c r="E30" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
@@ -1303,8 +1313,8 @@
       <c r="D31" s="3">
         <v>128</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>44</v>
+      <c r="E31" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F31" t="s">
         <v>73</v>

--- a/trunk/doc/HPSC job runs on Janus progress; 2011-04.xlsx
+++ b/trunk/doc/HPSC job runs on Janus progress; 2011-04.xlsx
@@ -357,12 +357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,6 +364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,9 +393,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +693,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,7 +813,7 @@
       <c r="D6">
         <v>1024</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F6" t="s">
@@ -833,7 +833,7 @@
       <c r="D7">
         <v>128</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F7" t="s">
@@ -853,7 +853,7 @@
       <c r="D8">
         <v>2048</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F8" t="s">
@@ -873,7 +873,7 @@
       <c r="D9">
         <v>4096</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F9" t="s">
@@ -893,7 +893,7 @@
       <c r="D10">
         <v>1024</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F10" t="s">
@@ -913,7 +913,7 @@
       <c r="D11">
         <v>128</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F11" t="s">
@@ -933,7 +933,7 @@
       <c r="D12">
         <v>2048</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F12" t="s">
@@ -953,7 +953,7 @@
       <c r="D13">
         <v>4096</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F13" t="s">
@@ -973,7 +973,7 @@
       <c r="D14">
         <v>1024</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F14" t="s">
@@ -993,7 +993,7 @@
       <c r="D15">
         <v>128</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1013,7 +1013,7 @@
       <c r="D16">
         <v>2048</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F16" t="s">
@@ -1033,8 +1033,8 @@
       <c r="D17">
         <v>4096</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
+      <c r="E17" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -1134,7 +1134,7 @@
         <v>1024</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>64</v>
@@ -1153,7 +1153,7 @@
       <c r="D23" s="3">
         <v>128</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F23" t="s">
@@ -1193,8 +1193,8 @@
       <c r="D25" s="3">
         <v>4096</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>44</v>
+      <c r="E25" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>67</v>
@@ -1213,7 +1213,7 @@
       <c r="D26" s="3">
         <v>1024</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F26" t="s">
@@ -1233,7 +1233,7 @@
       <c r="D27" s="3">
         <v>128</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F27" t="s">
@@ -1273,7 +1273,7 @@
       <c r="D29" s="3">
         <v>4096</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F29" t="s">
@@ -1293,7 +1293,7 @@
       <c r="D30" s="3">
         <v>1024</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F30" t="s">
@@ -1313,7 +1313,7 @@
       <c r="D31" s="3">
         <v>128</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F31" t="s">
